--- a/model/data/table1.xlsx
+++ b/model/data/table1.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H3"/>
+  <dimension ref="A2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,6 +529,172 @@
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>13-Oct</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Посев</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Ячмень яровой</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>420</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Центральное</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Уборка</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Кукуруза</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>3150</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>12-Oct</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Внесение минеральных удобрений</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Пшеница озимая</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>7264</v>
+      </c>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>13-Oct</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Посев</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Ячмень яровой</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>420</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>14-Oct</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Центральное</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Уборка</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Кукуруза</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>3150</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>1250</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>18700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/model/data/table1.xlsx
+++ b/model/data/table1.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H8"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,11 +500,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>12-Oct</t>
-        </is>
-      </c>
+      <c r="A3" s="2" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr">
         <is>
           <t>АОР</t>
@@ -512,29 +508,29 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Внесение минеральных удобрений</t>
+          <t>Пахота</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>Пшеница озимая</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>149</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>7264</v>
-      </c>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr"/>
+      <c r="H3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>13-Oct</t>
-        </is>
-      </c>
+      <c r="A4" s="2" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
           <t>АОР</t>
@@ -542,67 +538,59 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Посев</t>
+          <t>Пахота</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Ячмень яровой</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>420</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>5800</v>
-      </c>
+          <t>Подсолнечник товарный</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>14-Oct</t>
-        </is>
-      </c>
+      <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Центральное</t>
+          <t>АОР</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Уборка</t>
+          <t>Дискование</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Кукуруза</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>3150</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>18700</v>
-      </c>
+          <t>Кукуруза кормовая</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr"/>
+      <c r="H5" s="2" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>12-Oct</t>
-        </is>
-      </c>
+      <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
           <t>АОР</t>
@@ -610,29 +598,29 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Внесение минеральных удобрений</t>
+          <t>Дискование</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Пшеница озимая</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>149</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>7264</v>
-      </c>
-      <c r="G6" s="2" t="n"/>
-      <c r="H6" s="2" t="n"/>
+          <t>Пшеница озимая товарная</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>13-Oct</t>
-        </is>
-      </c>
+      <c r="A7" s="2" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
           <t>АОР</t>
@@ -640,60 +628,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Посев</t>
+          <t>Дискование</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Ячмень яровой</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
-        <v>85</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>420</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>14-Oct</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Центральное</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>Уборка</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Кукуруза</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>3150</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>18700</v>
-      </c>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/model/data/table1.xlsx
+++ b/model/data/table1.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,207 +447,2023 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
     <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="35" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
     <col width="25" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
     <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Подразделение</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Операция</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Культура</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>За день, га</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>С начала операции, га</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Вал за день, ц</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Вал с начала, ц</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr"/>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>АОР</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Пахота зяби под мн тр
+По Пу 26/488
+Отд 12 26/221
+Предп культ под оз пш
+По Пу 215/1015
+Отд 12 128/317
+Отд 16 123/529
+2-е диск сах св под пш
+По Пу 22/627
+Отд 11 22/217
+2-е диск сои под оз пш
+По Пу 45/1907
+Отд 12 45/299</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Пахота</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>Многолетние травы</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr"/>
+      <c r="I4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="inlineStr"/>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Предпосевная культивация</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>Пшеница озимая товарная</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1015</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Дискование 2-е</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Пшеница озимая товарная</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Дискование 2-е</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Пшеница озимая товарная</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Пахота зяби под сою 
+По ПУ 7/1402
+Отд 17 7/141
+Вырав-ие зяби под кук/силос
+По ПУ 16/16
+Отд 12 16/16
+Вырав-ие зяби под сах/свёклу
+По ПУ 67/912
+Отд 12 67/376
+2-ое диск-ие сах/свёкла 
+По ПУ 59/1041
+Отд 17 59/349</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="inlineStr"/>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Пахота</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Соя товарная</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="2" t="inlineStr"/>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Выравнивание зяби</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>Кукуруза кормовая</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr"/>
+      <c r="I10" s="2" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="inlineStr"/>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Выравнивание зяби</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>Свекла сахарная</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="inlineStr"/>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Дискование 2-е</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1041</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr"/>
+      <c r="I12" s="2" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12.10
+Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 149/7264
+Отд 17-149/1443</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Внесение минеральных удобрений</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Пшеница озимая товарная</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>7264</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Север 
+Отд7 пах с св 41/501
+Отд20 20/281 по пу 61/793
+Отд 3 пах подс.60/231
+По пу 231
+Диск к. Сил отд 7. 32/352
+Пу- 484
+Диск под Оз п езубов 20/281
+Диск под с. Св отд 10 83/203 пу-1065га</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="inlineStr"/>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Пахота</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>793</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr"/>
-      <c r="H3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr"/>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>АОР</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="inlineStr"/>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>Пахота</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>Подсолнечник товарный</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>231</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr"/>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>АОР</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="2" t="inlineStr"/>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Пахота</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>Дискованная кукуруза</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="inlineStr"/>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>Дискование</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>Пшеница озимая товарная</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="inlineStr"/>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Дискование</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Внесение удобрений под рапс отд 7 -138/270
+Дисклвание под рапс 40/172
+Диск после Кук сил отд 7-32/352 по пу 484га</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="2" t="inlineStr"/>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Внесение минеральных удобрений</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>Рапс озимый</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="inlineStr"/>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Дискование</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Рапс озимый</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="inlineStr"/>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Дискование</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>Кукуруза кормовая</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F24" s="2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>484</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>АОР</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10.03 день
+2-я подкормка озимых, ПУ "Юг" - 1749/2559
+(в т.ч Амазон-1082/1371
+Пневмоход-667/1188)
+Отд11- 307/307 (амазон 307/307) 
+Отд 12- 671/671( амазон 318/318; пневмоход 353/353) 
+Отд 16- 462/1272( амазон 148/437; пневмоход 314/835) 
+Отд 17- 309/309( амазон 309/309)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>2025-03-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2-я подкормка</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Пшеница озимая товарная</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1749</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2559</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Уборка свеклы 27.10.день
+Отд10-45/216
+По ПУ 45/1569
+Вал 1259680/6660630
+Урожайность 279,9/308,3
+По ПУ 1259680/41630600
+На завод 1811630/6430580
+По ПУ 1811630/41400550
+Положено в кагат 399400
+Вввезено с кагата 951340
+Остаток 230060
+Оз-9,04/12,58
+Дигестия-14,50/15,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>2025-10-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Уборка</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1569</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>12596.8</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>66606.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Пахота под сах св
+По Пу 77/518
+Отд 12 46/298
+Отд 16 21/143
+Отд 17 10/17
+Чизел под оз ячмень 
+По Пу 22/640
+Отд 11 22/242
+Чизел под оз зел корм
+Отд 11 40/40
+Диск оз пшеницы
+По Пу 28/8872
+Отд 17 28/2097
+2-е диск под сах св
+По Пу 189/1763
+Отд 11 60/209
+Отд 12 122/540
+Отд 17 7/172
+Диск кук силос
+По Пу 6/904
+Отд 11 6/229
+Прик под оз ячмень
+По Пу 40/498
+Отд 11 40/100
+Уборка сои (семенной)
+Отд 11 65/65
+Вал 58720
+Урож 9</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="2" t="inlineStr"/>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Пахота</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="inlineStr"/>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Чизлевание</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Ячмень озимый</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="inlineStr"/>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Чизлевание</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Пшеница озимая на зеленый корм</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="inlineStr"/>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>Дискование</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>Пшеница озимая товарная</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr"/>
-      <c r="H6" s="2" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr"/>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>АОР</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>8872</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="2" t="inlineStr"/>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Дискование 2-е</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>1763</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="2" t="inlineStr"/>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>Дискование</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Кукуруза кормовая</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>904</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="2" t="inlineStr"/>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Прикатывание посевов</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Ячмень озимый</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="2" t="inlineStr"/>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Уборка</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>Соя семенная</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>58720</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Пахота под сах св
+ПоПу 91/609
+Отд 11 13/73
+Отд 12 49/347
+Отд 16 20/163
+Отд 17 9/26
+Чизел под оз зел корм
+Отд 11 60/100
+2-е диск под сах св
+По Пу 53/1816
+Отд 12 53/593
+Диск кук силос
+По Пу 66/970
+Отд 11 66/295
+Диск сах св
+Отд 12 13/13
+Прикат под оз ячмень
+По Пу 40/538
+Отд 11 40/140
+Уборка сои семенной
+Отд 11 29/94
+Вал 37400/96120
+Урож 12,9/10,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="inlineStr"/>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Пахота</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>Свекла сахарная</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1065</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="2" t="inlineStr"/>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Чизелование</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>Озимые злаковые</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="2" t="inlineStr"/>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Дискование 2-е</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>1816</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="2" t="inlineStr"/>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Дискование</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Кукуруза кормовая</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="2" t="inlineStr"/>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Дискование</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="2" t="inlineStr"/>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Прикатывание посевов</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Ячмень озимый</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr"/>
+      <c r="I44" s="2" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="2" t="inlineStr"/>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Уборка</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>Соя семенная</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>96120</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Пахота под сах св
+По Пу 88/329
+Отд 11 23/60
+Отд 12 34/204
+Отд 16 31/65
+Пахота под мн тр
+По Пу 10/438
+Отд 17 10/80
+Чизел под оз ячмень
+По Пу 71/528
+Отд 11 71/130
+2-е диск под сах св
+По Пу 80/1263
+Отд 12 80/314
+2-е диск под оз ячмень
+По Пу 97/819
+Отд 17 97/179
+Диск кук силос
+По Пу 43/650
+Отд 11 33/133
+Отд 12 10/148
+Выкаш отц форм под/г
+Отд 12 10/22
+Уборка сах св
+Отд 12 16/16
+Вал 473920
+Урож 296,2
+Диг - 19,19
+Оз - 5,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="2" t="inlineStr"/>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Пахота</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="2" t="inlineStr"/>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Пахота</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>Многолетние травы</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="2" t="inlineStr"/>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Чизлевание</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Ячмень озимый</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="2" t="inlineStr"/>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Дискование 2-е</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>1263</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="2" t="inlineStr"/>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Дискование 2-е</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Ячмень озимый</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>819</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="2" t="inlineStr"/>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Дискование</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Кукуруза кормовая</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="2" t="inlineStr"/>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Выкашивание отцовских форм</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Горох товарный</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="2" t="inlineStr"/>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>АОР</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Уборка</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>Свекла сахарная</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>473920</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>296.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>20.11 Мир
+Пахота зяби под сою 100 га день, 1109 га от начала, 97%, 30 га остаток.
+Работало 4 агрегата.
+Выравнивание зяби под подсолнечник 47 га день, 141 га от начала, 29 %, остаток 565 га. Работал 1 агрегат
+Осадки:
+Бригада 1 Воронежская - 6 мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>2025-11-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Мир</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Пахота</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Соя товарная</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr"/>
+      <c r="I56" s="2" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>2025-11-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Мир</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Выравнивание зяби</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>Подсолнечник товарный</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ТСК
+Выравнивание зяби под сою 25 га/ с нарастающим 765 га ( 13%) Остаток 5332 га
+Выравнивание зяби под кукурузу 131га (3%) Остаток 4486 га
+Осадки 1мм</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="2" t="inlineStr"/>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>ТСК</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Выравнивание зяби</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>Соя товарная</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="2" t="inlineStr"/>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>ТСК</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Выравнивание зяби</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>Кукуруза товарная</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>4486</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="2" t="inlineStr"/>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Осадки</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Восход
+Посев кук-24/252га
+24%
+Предпосевная культ
+Под кук-94/490га46%
+СЗРоз пш-103/557га
+25%
+Подкормка оз рапс-
+152га , 100%, подкормка овса-97га, 50%
+Довсходовое боронование подсолнечника-524
+га, 100%.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="2" t="inlineStr"/>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Восход</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Сев</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>Кукуруза</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="2" t="inlineStr"/>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Восход</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Педпосевная культивация</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>Кукуруза</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="2" t="inlineStr"/>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Восход</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>СЗР</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Пшеница озимая товарная</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="2" t="inlineStr"/>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Восход</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>Подкормка</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Рапс озимый</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="2" t="inlineStr"/>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Восход</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Подкормка</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Овес</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="2" t="inlineStr"/>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Восход</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>Боронование довсходовое</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Подсолнечник товарный</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>30.03.25г.
+СП Коломейцево
+предпосевная культивация
+  -под подсолнечник
+    день 30га
+    от начала 187га(91%)
+сев подсолнечника
+  день+ночь 57га
+  от начала 157га(77%)
+Внесение почвенного гербицида по подсолнечнику
+ день 82га
+  от начала 82га (38%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>2025-03-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>СП Коломейцево</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>педпосевная культивация</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>Подсолнечник товарный</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>2025-03-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>СП Коломейцево</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Сев</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Подсолнечник товарный</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>2025-03-30 00:00:00</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>СП Коломейцево</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Внесение почвенного гербицида</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Подсолнечник товарный</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
